--- a/data/dataPaper-I-in/arphified/Mammalia.xlsx
+++ b/data/dataPaper-I-in/arphified/Mammalia.xlsx
@@ -798,76 +798,76 @@
     <t>${catalogNumber}</t>
   </si>
   <si>
+    <t>${recordedBy}</t>
+  </si>
+  <si>
+    <t>${individualCount}</t>
+  </si>
+  <si>
+    <t>${sex}</t>
+  </si>
+  <si>
+    <t>PRESENT</t>
+  </si>
+  <si>
+    <t>${taxonName}</t>
+  </si>
+  <si>
+    <t>!references.ref</t>
+  </si>
+  <si>
+    <t>iNaturalist:${iNaturalistTaxonId}</t>
+  </si>
+  <si>
+    <t>${scientificName}</t>
+  </si>
+  <si>
+    <t>${kingdom}</t>
+  </si>
+  <si>
+    <t>${phylum}</t>
+  </si>
+  <si>
+    <t>${class}</t>
+  </si>
+  <si>
+    <t>${order}</t>
+  </si>
+  <si>
+    <t>${family}</t>
+  </si>
+  <si>
+    <t>${genus}</t>
+  </si>
+  <si>
+    <t>${subgenus}</t>
+  </si>
+  <si>
+    <t>Galiano Island</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>British Columbia</t>
+  </si>
+  <si>
+    <t>${locality}</t>
+  </si>
+  <si>
+    <t>${depth}</t>
+  </si>
+  <si>
+    <t>${latitude}</t>
+  </si>
+  <si>
+    <t>${longitude}</t>
+  </si>
+  <si>
     <t>Confidence: ${confidence}</t>
-  </si>
-  <si>
-    <t>${recordedBy}</t>
-  </si>
-  <si>
-    <t>${individualCount}</t>
-  </si>
-  <si>
-    <t>${sex}</t>
-  </si>
-  <si>
-    <t>PRESENT</t>
-  </si>
-  <si>
-    <t>${taxonName}</t>
-  </si>
-  <si>
-    <t>!references.ref</t>
-  </si>
-  <si>
-    <t>iNaturalist:${iNaturalistTaxonId}</t>
-  </si>
-  <si>
-    <t>${scientificName}</t>
-  </si>
-  <si>
-    <t>${kingdom}</t>
-  </si>
-  <si>
-    <t>${phylum}</t>
-  </si>
-  <si>
-    <t>${class}</t>
-  </si>
-  <si>
-    <t>${order}</t>
-  </si>
-  <si>
-    <t>${family}</t>
-  </si>
-  <si>
-    <t>${genus}</t>
-  </si>
-  <si>
-    <t>${subgenus}</t>
-  </si>
-  <si>
-    <t>Galiano Island</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>British Columbia</t>
-  </si>
-  <si>
-    <t>${locality}</t>
-  </si>
-  <si>
-    <t>${depth}</t>
-  </si>
-  <si>
-    <t>${latitude}</t>
-  </si>
-  <si>
-    <t>${longitude}</t>
   </si>
   <si>
     <t>!references.samplingProtocol</t>
@@ -3246,301 +3246,301 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
         <v>261</v>
       </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
         <v>262</v>
       </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>263</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
         <v>264</v>
       </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
         <v>265</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
         <v>266</v>
       </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
         <v>267</v>
       </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" t="s">
         <v>268</v>
       </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN2" t="s">
         <v>269</v>
       </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>270</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>271</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>272</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>273</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>274</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>275</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK2" t="s">
         <v>276</v>
       </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>277</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>278</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>279</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ2" t="s">
         <v>280</v>
       </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
         <v>281</v>
       </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CH2" t="s">
         <v>282</v>
       </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
+      <c r="CI2" t="s">
         <v>283</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>261</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
         <v>284</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>262</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
       </c>
       <c r="DA2" t="s">
         <v>36</v>
@@ -3663,7 +3663,7 @@
         <v>36</v>
       </c>
       <c r="EO2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="EP2" t="s">
         <v>36</v>

--- a/data/dataPaper-I-in/arphified/Mammalia.xlsx
+++ b/data/dataPaper-I-in/arphified/Mammalia.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="300">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -865,6 +865,9 @@
   </si>
   <si>
     <t>${longitude}</t>
+  </si>
+  <si>
+    <t>${coordinateUncertaintyInMeters}</t>
   </si>
   <si>
     <t>Confidence: ${confidence}</t>
@@ -3495,7 +3498,7 @@
         <v>36</v>
       </c>
       <c r="CK2" t="s">
-        <v>36</v>
+        <v>284</v>
       </c>
       <c r="CL2" t="s">
         <v>36</v>
@@ -3540,7 +3543,7 @@
         <v>36</v>
       </c>
       <c r="CZ2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="DA2" t="s">
         <v>36</v>
@@ -3603,13 +3606,13 @@
         <v>36</v>
       </c>
       <c r="DU2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="DV2" t="s">
         <v>36</v>
       </c>
       <c r="DW2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="DX2" t="s">
         <v>36</v>
@@ -3621,13 +3624,13 @@
         <v>36</v>
       </c>
       <c r="EA2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="EB2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="EC2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="ED2" t="s">
         <v>36</v>
@@ -3636,13 +3639,13 @@
         <v>36</v>
       </c>
       <c r="EF2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="EG2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="EH2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="EI2" t="s">
         <v>36</v>
@@ -3675,19 +3678,19 @@
         <v>36</v>
       </c>
       <c r="ES2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="ET2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="EU2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="EV2" t="s">
         <v>36</v>
       </c>
       <c r="EW2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="EX2" t="s">
         <v>36</v>
@@ -3718,10 +3721,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Mammalia.xlsx
+++ b/data/dataPaper-I-in/arphified/Mammalia.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="309">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -147,6 +147,9 @@
     <t>Whippomorpha</t>
   </si>
   <si>
+    <t>Cetacea</t>
+  </si>
+  <si>
     <t>Balaenopteridae</t>
   </si>
   <si>
@@ -447,6 +450,15 @@
     <t>order</t>
   </si>
   <si>
+    <t>suborder</t>
+  </si>
+  <si>
+    <t>infraorder</t>
+  </si>
+  <si>
+    <t>superfamily</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
@@ -819,7 +831,7 @@
     <t>iNaturalist:${iNaturalistTaxonId}</t>
   </si>
   <si>
-    <t>${scientificName}</t>
+    <t>${summary.taxonName}</t>
   </si>
   <si>
     <t>${kingdom}</t>
@@ -834,6 +846,15 @@
     <t>${order}</t>
   </si>
   <si>
+    <t>${suborder}</t>
+  </si>
+  <si>
+    <t>${infraorder}</t>
+  </si>
+  <si>
+    <t>${superfamily}</t>
+  </si>
+  <si>
     <t>${family}</t>
   </si>
   <si>
@@ -843,6 +864,9 @@
     <t>${subgenus}</t>
   </si>
   <si>
+    <t>${summary.Author}</t>
+  </si>
+  <si>
     <t>Galiano Island</t>
   </si>
   <si>
@@ -877,6 +901,9 @@
   </si>
   <si>
     <t>!Date:YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>!Date:HH:mm:ss</t>
   </si>
   <si>
     <t>!Date:YYYY</t>
@@ -1431,13 +1458,13 @@
         <v>43</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M2" t="s">
         <v>36</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O2" t="s">
         <v>36</v>
@@ -1449,13 +1476,13 @@
         <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S2" t="s">
         <v>36</v>
       </c>
       <c r="T2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
         <v>36</v>
@@ -1467,7 +1494,7 @@
         <v>36</v>
       </c>
       <c r="X2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y2" t="s">
         <v>36</v>
@@ -1502,7 +1529,7 @@
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
@@ -1535,13 +1562,13 @@
         <v>43</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M3" t="s">
         <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" t="s">
         <v>36</v>
@@ -1553,13 +1580,13 @@
         <v>36</v>
       </c>
       <c r="R3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S3" t="s">
         <v>36</v>
       </c>
       <c r="T3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U3" t="s">
         <v>36</v>
@@ -1571,7 +1598,7 @@
         <v>36</v>
       </c>
       <c r="X3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y3" t="s">
         <v>36</v>
@@ -1606,7 +1633,7 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
@@ -1639,13 +1666,13 @@
         <v>43</v>
       </c>
       <c r="L4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M4" t="s">
         <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" t="s">
         <v>36</v>
@@ -1657,13 +1684,13 @@
         <v>36</v>
       </c>
       <c r="R4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S4" t="s">
         <v>36</v>
       </c>
       <c r="T4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U4" t="s">
         <v>36</v>
@@ -1675,7 +1702,7 @@
         <v>36</v>
       </c>
       <c r="X4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y4" t="s">
         <v>36</v>
@@ -1710,7 +1737,7 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
         <v>35</v>
@@ -1743,13 +1770,13 @@
         <v>43</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M5" t="s">
         <v>36</v>
       </c>
       <c r="N5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O5" t="s">
         <v>36</v>
@@ -1761,13 +1788,13 @@
         <v>36</v>
       </c>
       <c r="R5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S5" t="s">
         <v>36</v>
       </c>
       <c r="T5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U5" t="s">
         <v>36</v>
@@ -1779,7 +1806,7 @@
         <v>36</v>
       </c>
       <c r="X5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y5" t="s">
         <v>36</v>
@@ -1814,7 +1841,7 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
         <v>35</v>
@@ -1847,13 +1874,13 @@
         <v>43</v>
       </c>
       <c r="L6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M6" t="s">
         <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O6" t="s">
         <v>36</v>
@@ -1865,13 +1892,13 @@
         <v>36</v>
       </c>
       <c r="R6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S6" t="s">
         <v>36</v>
       </c>
       <c r="T6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U6" t="s">
         <v>36</v>
@@ -1883,7 +1910,7 @@
         <v>36</v>
       </c>
       <c r="X6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y6" t="s">
         <v>36</v>
@@ -1918,7 +1945,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
         <v>35</v>
@@ -1951,13 +1978,13 @@
         <v>43</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M7" t="s">
         <v>36</v>
       </c>
       <c r="N7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O7" t="s">
         <v>36</v>
@@ -1969,13 +1996,13 @@
         <v>36</v>
       </c>
       <c r="R7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S7" t="s">
         <v>36</v>
       </c>
       <c r="T7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U7" t="s">
         <v>36</v>
@@ -1987,7 +2014,7 @@
         <v>36</v>
       </c>
       <c r="X7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y7" t="s">
         <v>36</v>
@@ -2022,7 +2049,7 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -2055,13 +2082,13 @@
         <v>43</v>
       </c>
       <c r="L8" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M8" t="s">
         <v>36</v>
       </c>
       <c r="N8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O8" t="s">
         <v>36</v>
@@ -2073,13 +2100,13 @@
         <v>36</v>
       </c>
       <c r="R8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S8" t="s">
         <v>36</v>
       </c>
       <c r="T8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U8" t="s">
         <v>36</v>
@@ -2091,7 +2118,7 @@
         <v>36</v>
       </c>
       <c r="X8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y8" t="s">
         <v>36</v>
@@ -2126,7 +2153,7 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
@@ -2159,13 +2186,13 @@
         <v>43</v>
       </c>
       <c r="L9" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M9" t="s">
         <v>36</v>
       </c>
       <c r="N9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O9" t="s">
         <v>36</v>
@@ -2177,13 +2204,13 @@
         <v>36</v>
       </c>
       <c r="R9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S9" t="s">
         <v>36</v>
       </c>
       <c r="T9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U9" t="s">
         <v>36</v>
@@ -2195,7 +2222,7 @@
         <v>36</v>
       </c>
       <c r="X9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s">
         <v>36</v>
@@ -2230,7 +2257,7 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
@@ -2257,7 +2284,7 @@
         <v>41</v>
       </c>
       <c r="J10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s">
         <v>36</v>
@@ -2269,10 +2296,10 @@
         <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P10" t="s">
         <v>36</v>
@@ -2281,13 +2308,13 @@
         <v>36</v>
       </c>
       <c r="R10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s">
         <v>36</v>
       </c>
       <c r="T10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U10" t="s">
         <v>36</v>
@@ -2299,7 +2326,7 @@
         <v>36</v>
       </c>
       <c r="X10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y10" t="s">
         <v>36</v>
@@ -2334,7 +2361,7 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
@@ -2361,7 +2388,7 @@
         <v>41</v>
       </c>
       <c r="J11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s">
         <v>36</v>
@@ -2373,10 +2400,10 @@
         <v>36</v>
       </c>
       <c r="N11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P11" t="s">
         <v>36</v>
@@ -2385,13 +2412,13 @@
         <v>36</v>
       </c>
       <c r="R11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S11" t="s">
         <v>36</v>
       </c>
       <c r="T11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U11" t="s">
         <v>36</v>
@@ -2403,7 +2430,7 @@
         <v>36</v>
       </c>
       <c r="X11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y11" t="s">
         <v>36</v>
@@ -2438,7 +2465,7 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
@@ -2465,7 +2492,7 @@
         <v>41</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K12" t="s">
         <v>36</v>
@@ -2477,7 +2504,7 @@
         <v>36</v>
       </c>
       <c r="N12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O12" t="s">
         <v>36</v>
@@ -2489,13 +2516,13 @@
         <v>36</v>
       </c>
       <c r="R12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S12" t="s">
         <v>36</v>
       </c>
       <c r="T12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U12" t="s">
         <v>36</v>
@@ -2507,7 +2534,7 @@
         <v>36</v>
       </c>
       <c r="X12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y12" t="s">
         <v>36</v>
@@ -2542,7 +2569,7 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -2569,7 +2596,7 @@
         <v>41</v>
       </c>
       <c r="J13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s">
         <v>36</v>
@@ -2581,7 +2608,7 @@
         <v>36</v>
       </c>
       <c r="N13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O13" t="s">
         <v>36</v>
@@ -2593,13 +2620,13 @@
         <v>36</v>
       </c>
       <c r="R13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S13" t="s">
         <v>36</v>
       </c>
       <c r="T13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U13" t="s">
         <v>36</v>
@@ -2611,7 +2638,7 @@
         <v>36</v>
       </c>
       <c r="X13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y13" t="s">
         <v>36</v>
@@ -2646,7 +2673,7 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
@@ -2673,7 +2700,7 @@
         <v>41</v>
       </c>
       <c r="J14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s">
         <v>36</v>
@@ -2685,7 +2712,7 @@
         <v>36</v>
       </c>
       <c r="N14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O14" t="s">
         <v>36</v>
@@ -2697,16 +2724,16 @@
         <v>36</v>
       </c>
       <c r="R14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S14" t="s">
         <v>36</v>
       </c>
       <c r="T14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="U14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V14" t="s">
         <v>36</v>
@@ -2715,7 +2742,7 @@
         <v>36</v>
       </c>
       <c r="X14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Y14" t="s">
         <v>36</v>
@@ -2756,494 +2783,503 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FA2"/>
+  <dimension ref="A1:FD2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:157" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="S1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="T1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="U1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="X1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Z1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AA1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AB1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AC1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AD1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AE1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AH1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AI1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AJ1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AN1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AO1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AP1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AQ1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AR1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AS1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AT1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AU1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AV1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AW1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AX1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AY1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AZ1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="BA1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BB1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BC1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BD1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BE1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BF1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BG1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="BH1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BI1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BJ1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BK1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BL1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="BM1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="BN1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="BO1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BP1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BQ1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BR1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BS1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="BT1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BU1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BV1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="BW1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BX1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BY1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="BZ1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="CA1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="CB1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="CC1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CD1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CE1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CF1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CG1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CH1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CI1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CJ1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CK1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CL1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CM1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CN1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CO1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="CP1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="CQ1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="CR1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CS1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="CT1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="CU1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CV1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="CW1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="CX1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="CY1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CZ1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="DA1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="DB1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="DC1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="DD1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="DE1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="DF1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="DG1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="DH1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="DI1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="DJ1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="DK1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="DL1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="DM1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="DN1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="DO1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="DP1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="DQ1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="DR1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="DS1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="DT1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="DU1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="DV1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="DW1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="DX1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="DY1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="DZ1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="EA1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="EB1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="EC1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="ED1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="EE1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="EF1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="EG1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="EH1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="EI1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="EJ1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="EK1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="EL1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="EM1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="EN1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="EO1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="EP1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="EQ1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="ER1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="ES1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="ET1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="EU1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="EV1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="EW1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="EX1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="EY1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="EZ1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="FA1" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>259</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>260</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:157" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -3255,16 +3291,16 @@
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I2" t="s">
         <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L2" t="s">
         <v>36</v>
@@ -3279,7 +3315,7 @@
         <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q2" t="s">
         <v>36</v>
@@ -3291,417 +3327,426 @@
         <v>36</v>
       </c>
       <c r="T2" t="s">
+        <v>269</v>
+      </c>
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
+        <v>270</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>272</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>273</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>274</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>275</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>276</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>277</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>279</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>280</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>281</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>283</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>284</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>285</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>286</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>287</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>288</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>289</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>290</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>291</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>292</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
         <v>265</v>
       </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
-        <v>266</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>268</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>269</v>
-      </c>
-      <c r="AO2" t="s">
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>293</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>294</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>295</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>296</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>297</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>298</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>299</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>300</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>301</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>302</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER2" t="s">
         <v>270</v>
       </c>
-      <c r="AP2" t="s">
-        <v>271</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>272</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>273</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>274</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>275</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>276</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>277</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>278</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>279</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>280</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>281</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>282</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>283</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>284</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>261</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>285</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>286</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>287</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>288</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>289</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>290</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>291</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>292</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>293</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>266</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>36</v>
-      </c>
       <c r="ES2" t="s">
-        <v>294</v>
+        <v>36</v>
       </c>
       <c r="ET2" t="s">
-        <v>295</v>
+        <v>36</v>
       </c>
       <c r="EU2" t="s">
-        <v>296</v>
+        <v>36</v>
       </c>
       <c r="EV2" t="s">
-        <v>36</v>
+        <v>303</v>
       </c>
       <c r="EW2" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="EX2" t="s">
-        <v>36</v>
+        <v>305</v>
       </c>
       <c r="EY2" t="s">
         <v>36</v>
       </c>
       <c r="EZ2" t="s">
-        <v>36</v>
+        <v>306</v>
       </c>
       <c r="FA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FD2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3721,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C1" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Mammalia.xlsx
+++ b/data/dataPaper-I-in/arphified/Mammalia.xlsx
@@ -267,13 +267,13 @@
     <t>(Schreber, 1777)</t>
   </si>
   <si>
-    <t>74758</t>
+    <t>1264432</t>
   </si>
   <si>
     <t>Mustelinae</t>
   </si>
   <si>
-    <t>Neovison</t>
+    <t>Neogale</t>
   </si>
   <si>
     <t>vison</t>

--- a/data/dataPaper-I-in/arphified/Mammalia.xlsx
+++ b/data/dataPaper-I-in/arphified/Mammalia.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="302">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -450,15 +450,6 @@
     <t>order</t>
   </si>
   <si>
-    <t>suborder</t>
-  </si>
-  <si>
-    <t>infraorder</t>
-  </si>
-  <si>
-    <t>superfamily</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
@@ -801,9 +792,6 @@
     <t>source</t>
   </si>
   <si>
-    <t>${iNaturalistTaxonId}</t>
-  </si>
-  <si>
     <t>${gbifOccurrenceID}</t>
   </si>
   <si>
@@ -846,15 +834,6 @@
     <t>${order}</t>
   </si>
   <si>
-    <t>${suborder}</t>
-  </si>
-  <si>
-    <t>${infraorder}</t>
-  </si>
-  <si>
-    <t>${superfamily}</t>
-  </si>
-  <si>
     <t>${family}</t>
   </si>
   <si>
@@ -864,7 +843,7 @@
     <t>${subgenus}</t>
   </si>
   <si>
-    <t>${summary.Author}</t>
+    <t>${summary.authority}</t>
   </si>
   <si>
     <t>Galiano Island</t>
@@ -2783,970 +2762,946 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FD2"/>
+  <dimension ref="A1:EZ2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="T1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="U1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="X1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Y1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Z1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AA1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AB1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AC1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AD1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AE1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AH1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AI1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AJ1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AM1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AN1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AO1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AP1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AQ1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AR1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AS1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AT1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AU1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AV1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AW1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AX1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AY1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AZ1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BA1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BB1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BC1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BD1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BE1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BF1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="BG1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BH1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BI1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BJ1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BK1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="BL1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="BM1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="BN1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BO1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BP1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BQ1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BR1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="BS1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BT1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BU1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="BV1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BW1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BX1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="BY1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="BZ1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="CA1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="CB1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CC1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CD1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CE1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CF1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CG1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CH1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CI1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CJ1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CK1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CL1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CM1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CN1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="CO1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="CP1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="CQ1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CR1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="CS1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="CT1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CU1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="CV1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="CW1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="CX1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CY1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="CZ1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="DA1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="DB1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="DC1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="DD1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="DE1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="DF1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="DG1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="DH1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="DI1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="DJ1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="DK1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="DL1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="DM1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="DN1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="DO1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="DP1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="DQ1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="DR1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="DS1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="DT1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="DU1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="DV1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="DW1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="DX1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="DY1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="DZ1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="EA1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="EB1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="EC1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="ED1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="EE1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="EF1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="EG1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="EH1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="EI1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="EJ1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="EK1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="EL1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="EM1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="EN1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="EO1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="EP1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="EQ1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="ER1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="ES1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="ET1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="EU1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="EV1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="EW1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="EX1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="EY1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="EZ1" t="s">
-        <v>257</v>
-      </c>
-      <c r="FA1" t="s">
         <v>258</v>
       </c>
-      <c r="FB1" t="s">
+    </row>
+    <row r="2" spans="1:156" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>259</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="C2" t="s">
         <v>260</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="2" spans="1:160" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
         <v>262</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="J2" t="s">
         <v>263</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
         <v>264</v>
       </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>265</v>
       </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
         <v>266</v>
       </c>
-      <c r="K2" t="s">
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
         <v>267</v>
       </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
         <v>268</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="AG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
         <v>269</v>
       </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="AN2" t="s">
         <v>270</v>
       </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AO2" t="s">
         <v>271</v>
       </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AP2" t="s">
         <v>272</v>
       </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>273</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>274</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AS2" t="s">
         <v>275</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX2" t="s">
         <v>276</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>277</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BK2" t="s">
         <v>278</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BL2" t="s">
         <v>279</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BM2" t="s">
         <v>280</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP2" t="s">
         <v>281</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU2" t="s">
         <v>282</v>
       </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
         <v>283</v>
       </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BN2" t="s">
+      <c r="CH2" t="s">
         <v>284</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="CI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ2" t="s">
         <v>285</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>261</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
         <v>286</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT2" t="s">
         <v>287</v>
       </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
+      <c r="DU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DV2" t="s">
         <v>288</v>
       </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
+      <c r="DW2" t="s">
         <v>289</v>
       </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
+      <c r="DX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DZ2" t="s">
         <v>290</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="EA2" t="s">
         <v>291</v>
       </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
+      <c r="EB2" t="s">
         <v>292</v>
       </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>265</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EE2" t="s">
         <v>293</v>
       </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DX2" t="s">
+      <c r="EF2" t="s">
         <v>294</v>
       </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
+      <c r="EG2" t="s">
         <v>295</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>266</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER2" t="s">
         <v>296</v>
       </c>
-      <c r="EB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ED2" t="s">
+      <c r="ES2" t="s">
         <v>297</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="ET2" t="s">
         <v>298</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EV2" t="s">
         <v>299</v>
       </c>
-      <c r="EG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>300</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>301</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>302</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>270</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>303</v>
-      </c>
       <c r="EW2" t="s">
-        <v>304</v>
+        <v>36</v>
       </c>
       <c r="EX2" t="s">
-        <v>305</v>
+        <v>36</v>
       </c>
       <c r="EY2" t="s">
         <v>36</v>
       </c>
       <c r="EZ2" t="s">
-        <v>306</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FD2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3766,10 +3721,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Mammalia.xlsx
+++ b/data/dataPaper-I-in/arphified/Mammalia.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="300">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -456,9 +456,6 @@
     <t>genus</t>
   </si>
   <si>
-    <t>subgenus</t>
-  </si>
-  <si>
     <t>specificEpithet</t>
   </si>
   <si>
@@ -838,9 +835,6 @@
   </si>
   <si>
     <t>${genus}</t>
-  </si>
-  <si>
-    <t>${subgenus}</t>
   </si>
   <si>
     <t>${summary.authority}</t>
@@ -2762,10 +2756,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EZ2"/>
+  <dimension ref="A1:EY2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:156" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>103</v>
       </c>
@@ -3231,466 +3225,463 @@
       <c r="EY1" t="s">
         <v>257</v>
       </c>
-      <c r="EZ1" t="s">
+    </row>
+    <row r="2" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="2" spans="1:156" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>259</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>260</v>
       </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
         <v>261</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>262</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
         <v>263</v>
       </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>264</v>
       </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
         <v>265</v>
       </c>
-      <c r="T2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
         <v>266</v>
       </c>
-      <c r="V2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
         <v>267</v>
       </c>
-      <c r="Y2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
         <v>268</v>
       </c>
-      <c r="AG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>269</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>270</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>271</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>272</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>273</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
         <v>274</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
         <v>275</v>
       </c>
-      <c r="AT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
+      <c r="BJ2" t="s">
         <v>276</v>
       </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>277</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>278</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO2" t="s">
         <v>279</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
         <v>280</v>
       </c>
-      <c r="BN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
         <v>281</v>
       </c>
-      <c r="BQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
+      <c r="CG2" t="s">
         <v>282</v>
       </c>
-      <c r="BV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
+      <c r="CH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI2" t="s">
         <v>283</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>260</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
         <v>284</v>
       </c>
-      <c r="CI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ2" t="s">
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
         <v>285</v>
       </c>
-      <c r="CK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>261</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
+      <c r="DT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU2" t="s">
         <v>286</v>
       </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
+      <c r="DV2" t="s">
         <v>287</v>
       </c>
-      <c r="DU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DV2" t="s">
+      <c r="DW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY2" t="s">
         <v>288</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="DZ2" t="s">
         <v>289</v>
       </c>
-      <c r="DX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
+      <c r="EA2" t="s">
         <v>290</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
         <v>291</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="EE2" t="s">
         <v>292</v>
       </c>
-      <c r="EC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EE2" t="s">
+      <c r="EF2" t="s">
         <v>293</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>265</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
         <v>294</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="ER2" t="s">
         <v>295</v>
       </c>
-      <c r="EH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>266</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
+      <c r="ES2" t="s">
         <v>296</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="ET2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU2" t="s">
         <v>297</v>
       </c>
-      <c r="ET2" t="s">
-        <v>298</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>36</v>
-      </c>
       <c r="EV2" t="s">
-        <v>299</v>
+        <v>36</v>
       </c>
       <c r="EW2" t="s">
         <v>36</v>
@@ -3699,9 +3690,6 @@
         <v>36</v>
       </c>
       <c r="EY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EZ2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3721,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
